--- a/tasks and reports/Solutions.xlsx
+++ b/tasks and reports/Solutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Comp_Math\tasks and reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Al-Kh\PyCharmProjects\Comp_Math\tasks and reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A2643F-6B7D-4379-A31F-7C807ADFDABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06182E72-5C5E-4937-B200-B2AC6207CFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="17923" windowHeight="12905" firstSheet="1" activeTab="3" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab1.шаговый" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.0000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -146,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -527,34 +527,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -591,92 +572,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,6 +635,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -705,20 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,6 +696,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,23 +1165,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>247649</xdr:rowOff>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
+        <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF83D32B-D803-49D7-8E70-C56BD511E426}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99907368-8F7A-4AD3-BC02-E105127F12AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,8 +1214,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1752600" y="4305299"/>
-          <a:ext cx="3019425" cy="523875"/>
+          <a:off x="3990975" y="2752725"/>
+          <a:ext cx="561975" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,22 +1237,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:colOff>865163</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>42203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:colOff>1350498</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:rowOff>302455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455BCC97-A70F-4813-95B7-8465681C2B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B934DE-3DF7-0275-FAED-0A8451EA5060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,8 +1285,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2019300" y="2762250"/>
-          <a:ext cx="314325" cy="228600"/>
+          <a:off x="2103120" y="5268351"/>
+          <a:ext cx="485335" cy="260252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1325,23 +1307,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>949569</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
+      <xdr:colOff>1167618</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161778</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
+        <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99907368-8F7A-4AD3-BC02-E105127F12AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAAB435-95E0-D500-DF5E-114516288A9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,8 +1356,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3990975" y="2752725"/>
-          <a:ext cx="561975" cy="228600"/>
+          <a:off x="2187526" y="4557932"/>
+          <a:ext cx="2377440" cy="450166"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,149 +1682,149 @@
       <selection activeCell="B3" sqref="B3:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:3" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="C3" s="40"/>
+    </row>
+    <row r="4" spans="2:3" ht="28.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:3" ht="35.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
         <f>C4</f>
         <v>0.8</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="15">
         <f>B7^3+0.2*B7^2+0.5*B7-1.2</f>
         <v>-0.15999999999999992</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
         <f>B7+$C$5</f>
         <v>0.81</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <f t="shared" ref="C8:C17" si="0">B8^3+0.2*B8^2+0.5*B8-1.2</f>
         <v>-0.13233899999999976</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
         <f t="shared" ref="B9:B13" si="1">B8+$C$5</f>
         <v>0.82000000000000006</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="15">
         <f t="shared" si="0"/>
         <v>-0.1041519999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="15">
         <f t="shared" si="0"/>
         <v>-7.5432999999999639E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
+    <row r="11" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="7">
         <f t="shared" si="1"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <f t="shared" si="0"/>
         <v>-4.6175999999999773E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
         <f t="shared" si="1"/>
         <v>0.85000000000000009</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <f t="shared" si="0"/>
         <v>-1.6374999999999806E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12">
+    <row r="13" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="10">
         <f t="shared" si="1"/>
         <v>0.8600000000000001</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <f t="shared" si="0"/>
         <v>1.397600000000021E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
         <f>B13+$C$5</f>
         <v>0.87000000000000011</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <f t="shared" si="0"/>
         <v>4.488300000000045E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
         <f t="shared" ref="B15:B16" si="2">B14+$C$5</f>
         <v>0.88000000000000012</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="15">
         <f t="shared" si="0"/>
         <v>7.635200000000042E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
         <f t="shared" si="2"/>
         <v>0.89000000000000012</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="15">
         <f t="shared" si="0"/>
         <v>0.10838900000000051</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7">
+    <row r="17" spans="2:3" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="5">
         <f>B16+$C$5</f>
         <v>0.90000000000000013</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="15">
         <f t="shared" si="0"/>
         <v>0.14100000000000046</v>
       </c>
@@ -1864,176 +1846,176 @@
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="7" width="10.7109375" customWidth="1"/>
+    <col min="2" max="7" width="10.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="42">
         <v>0.85</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="42">
         <v>1E-3</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22">
+    <row r="7" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="17">
         <v>0.85</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="18">
         <f>(B7+D7)/2</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="18">
         <v>0.86</v>
       </c>
-      <c r="E7" s="23">
-        <f>B7^3+0.2*B7^2+0.5*B7-1.2</f>
+      <c r="E7" s="18">
+        <f t="shared" ref="E7:F10" si="0">B7^3+0.2*B7^2+0.5*B7-1.2</f>
         <v>-1.6375000000000028E-2</v>
       </c>
-      <c r="F7" s="23">
-        <f>C7^3+0.2*C7^2+0.5*C7-1.2</f>
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
         <v>-1.2686250000000232E-3</v>
       </c>
-      <c r="G7" s="17" t="str">
+      <c r="G7" s="14" t="str">
         <f>IF(ABS(F7)&lt;$C$5,"СТОП",(IF((E7*F7)&lt;0,"ДА","НЕТ")))</f>
         <v>НЕТ</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24">
+    <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19">
         <f>IF((E7*F7)&lt;0,B7,C7)</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="18">
         <f>(B8+D8)/2</f>
         <v>0.85749999999999993</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="20">
         <f>IF((E7*F7)&lt;0,C7,D7)</f>
         <v>0.86</v>
       </c>
-      <c r="E8" s="23">
-        <f>B8^3+0.2*B8^2+0.5*B8-1.2</f>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
         <v>-1.2686250000000232E-3</v>
       </c>
-      <c r="F8" s="23">
-        <f>C8^3+0.2*C8^2+0.5*C8-1.2</f>
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
         <v>6.3363593749998781E-3</v>
       </c>
-      <c r="G8" s="17" t="str">
+      <c r="G8" s="14" t="str">
         <f>IF(ABS(F8)&lt;$C$5,"СТОП",(IF((E8*F8)&lt;0,"ДА","НЕТ")))</f>
         <v>ДА</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="24">
+    <row r="9" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19">
         <f>IF((E8*F8)&lt;0,B8,C8)</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="18">
         <f>(B9+D9)/2</f>
         <v>0.85624999999999996</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="20">
         <f>IF((E8*F8)&lt;0,C8,D8)</f>
         <v>0.85749999999999993</v>
       </c>
-      <c r="E9" s="23">
-        <f>B9^3+0.2*B9^2+0.5*B9-1.2</f>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
         <v>-1.2686250000000232E-3</v>
       </c>
-      <c r="F9" s="23">
-        <f>C9^3+0.2*C9^2+0.5*C9-1.2</f>
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
         <v>2.5295410156249698E-3</v>
       </c>
-      <c r="G9" s="17" t="str">
+      <c r="G9" s="14" t="str">
         <f>IF(ABS(F9)&lt;$C$5,"СТОП",(IF((E9*F9)&lt;0,"ДА","НЕТ")))</f>
         <v>ДА</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26">
+    <row r="10" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="21">
         <f>IF((E9*F9)&lt;0,B9,C9)</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="22">
         <f>(B10+D10)/2</f>
         <v>0.85562499999999997</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="23">
         <f>IF((E9*F9)&lt;0,C9,D9)</f>
         <v>0.85624999999999996</v>
       </c>
-      <c r="E10" s="27">
-        <f>B10^3+0.2*B10^2+0.5*B10-1.2</f>
+      <c r="E10" s="22">
+        <f t="shared" si="0"/>
         <v>-1.2686250000000232E-3</v>
       </c>
-      <c r="F10" s="27">
-        <f>C10^3+0.2*C10^2+0.5*C10-1.2</f>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
         <v>6.2937719726563479E-4</v>
       </c>
-      <c r="G10" s="21" t="str">
+      <c r="G10" s="16" t="str">
         <f>IF(ABS(F10)&lt;$C$5,"СТОП",(IF((E10*F10)&lt;0,"ДА","НЕТ")))</f>
         <v>СТОП</v>
       </c>
@@ -2057,127 +2039,127 @@
       <selection activeCell="C3" sqref="C3:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.69921875" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="46" t="s">
+    <row r="1" spans="3:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="3:10" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="34">
         <v>0.8</v>
       </c>
-      <c r="J2" s="48">
+      <c r="J2" s="35">
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="30" t="s">
+    <row r="3" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="H3" s="49"/>
+      <c r="D3" s="40"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="1">
         <f>I2^3+0.2*I2^2+0.5*I2-1.2</f>
         <v>-0.15999999999999992</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <f>J2^3+0.2*J2^2+0.5*J2-1.2</f>
         <v>0.14100000000000024</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="32" t="s">
+    <row r="4" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="6">
         <v>0.9</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="1">
         <f>3*I2^2+0.4*I2+0.5</f>
         <v>2.74</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <f>3*J2^2+0.4*J2+0.5</f>
         <v>3.29</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="32" t="s">
+    <row r="5" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="49"/>
+      <c r="H5" s="36"/>
       <c r="I5" s="1">
         <f>6*I2+0.4</f>
         <v>5.2000000000000011</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <f>6*J2+0.4</f>
         <v>5.8000000000000007</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="32" t="s">
+    <row r="6" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="6">
         <v>1E-3</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="55"/>
-    </row>
-    <row r="8" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-    </row>
-    <row r="9" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-    </row>
-    <row r="10" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="40">
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="29">
         <v>0.9</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="30">
         <f>C10^3+0.2*C10^2+0.5*C10-1.2</f>
         <v>0.14100000000000024</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="36">
+    <row r="11" spans="3:10" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="25">
         <f>C10-(D10/(3*C10^2+0.4*C10+0.5))</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="26">
         <f>C11^3+0.2*C11^2+0.5*C11-1.2</f>
         <v>5.2478134110787167E-3</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="38">
+    <row r="12" spans="3:10" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="27">
         <f>C11-(D11/(3*C11^2+0.4*C11+0.5))</f>
         <v>0.85542053392019901</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="28">
         <f>C12^3+0.2*C12^2+0.5*C12-1.2</f>
         <v>8.2160490901816985E-6</v>
       </c>
@@ -2195,93 +2177,124 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C004E0-9E3C-4DBC-A39C-98A0E223F524}">
-  <dimension ref="C14:D25"/>
+  <dimension ref="C14:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="14" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="30" t="s">
+    <row r="14" spans="3:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="32" t="s">
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="6">
         <v>0.8</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="32" t="s">
+    <row r="17" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="56" t="s">
+    <row r="18" spans="3:4" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="38">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="60" t="s">
+    <row r="19" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="61"/>
-    </row>
-    <row r="20" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-    </row>
-    <row r="21" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-    </row>
-    <row r="22" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-    </row>
-    <row r="23" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="40">
-        <v>0.9</v>
-      </c>
-      <c r="D23" s="41">
+      <c r="D19" s="59"/>
+    </row>
+    <row r="20" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+    </row>
+    <row r="21" spans="3:4" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+    </row>
+    <row r="22" spans="3:4" ht="30.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="62">
+        <f>(1.2-0.2*0.8^2-0.5*0.8)^(1/3)</f>
+        <v>0.87590382797757782</v>
+      </c>
+      <c r="D23" s="30">
         <f>C23^3+0.2*C23^2+0.5*C23-1.2</f>
-        <v>0.14100000000000024</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="36">
-        <f>C23-(D23/(3*C23^2+0.4*C23+0.5))</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="D24" s="37">
+        <v>6.3393417161943688E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="25">
+        <f>(1.2-0.2*C23^2-0.5*C23)^(1/3)</f>
+        <v>0.84744635324368822</v>
+      </c>
+      <c r="D24" s="60">
         <f>C24^3+0.2*C24^2+0.5*C24-1.2</f>
-        <v>5.2478134110787167E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="38">
-        <f>C24-(D24/(3*C24^2+0.4*C24+0.5))</f>
-        <v>0.85542053392019901</v>
-      </c>
-      <c r="D25" s="39">
-        <f>C25^3+0.2*C25^2+0.5*C25-1.2</f>
-        <v>8.2160490901816985E-6</v>
+        <v>-2.403717621489454E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="25">
+        <f t="shared" ref="C25:C28" si="0">(1.2-0.2*C24^2-0.5*C24)^(1/3)</f>
+        <v>0.85845936494243413</v>
+      </c>
+      <c r="D25" s="60">
+        <f t="shared" ref="D25:D28" si="1">C25^3+0.2*C25^2+0.5*C25-1.2</f>
+        <v>9.2639377756411623E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" s="25">
+        <f t="shared" si="0"/>
+        <v>0.85424854292607899</v>
+      </c>
+      <c r="D26" s="60">
+        <f t="shared" si="1"/>
+        <v>-3.5477926413849392E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C27" s="25">
+        <f t="shared" si="0"/>
+        <v>0.85586605082187872</v>
+      </c>
+      <c r="D27" s="60">
+        <f t="shared" si="1"/>
+        <v>1.3619787195218169E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="27">
+        <f t="shared" si="0"/>
+        <v>0.85524582159107421</v>
+      </c>
+      <c r="D28" s="61">
+        <f t="shared" si="1"/>
+        <v>-5.2237093549178937E-4</v>
       </c>
     </row>
   </sheetData>
@@ -2291,6 +2304,7 @@
     <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tasks and reports/Solutions.xlsx
+++ b/tasks and reports/Solutions.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Al-Kh\PyCharmProjects\Comp_Math\tasks and reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06182E72-5C5E-4937-B200-B2AC6207CFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED065B7-9EE7-4616-A861-3B4C83F7C15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="17923" windowHeight="12905" firstSheet="1" activeTab="3" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
+    <workbookView xWindow="3046" yWindow="432" windowWidth="13702" windowHeight="11487" firstSheet="3" activeTab="5" xr2:uid="{4DD3A309-C25B-4EE0-85DE-85C6E8C93D45}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab1.шаговый" sheetId="1" r:id="rId1"/>
     <sheet name="Lab1.половинное_деление" sheetId="2" r:id="rId2"/>
     <sheet name="Lab1.метод_Ньютона" sheetId="3" r:id="rId3"/>
     <sheet name="Lab1.метод_Якоби" sheetId="4" r:id="rId4"/>
+    <sheet name="Lab2.метод_Гаусса" sheetId="5" r:id="rId5"/>
+    <sheet name="Lab2_метод_Якоби" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Шаговый метод</t>
   </si>
@@ -89,6 +91,42 @@
   <si>
     <t>Эквивалентная формула</t>
   </si>
+  <si>
+    <t>Решение системы методом Гаусса</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>Решение методом простой итерации</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>Погрешность</t>
+  </si>
+  <si>
+    <r>
+      <t>Выполнено условие точности (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ε=0.001)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -99,7 +137,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +163,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -146,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -527,11 +572,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,7 +816,61 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2179,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C004E0-9E3C-4DBC-A39C-98A0E223F524}">
   <dimension ref="C14:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:D28"/>
     </sheetView>
   </sheetViews>
@@ -2238,7 +2398,7 @@
       <c r="D22" s="32"/>
     </row>
     <row r="23" spans="3:4" ht="30.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="62">
+      <c r="C23" s="65">
         <f>(1.2-0.2*0.8^2-0.5*0.8)^(1/3)</f>
         <v>0.87590382797757782</v>
       </c>
@@ -2307,4 +2467,985 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABE9ED4-2404-45F4-9D44-9907A236DBBC}">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="9.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="77">
+        <v>3.11</v>
+      </c>
+      <c r="C3" s="78">
+        <v>-1.66</v>
+      </c>
+      <c r="D3" s="78">
+        <v>-0.6</v>
+      </c>
+      <c r="E3" s="79">
+        <v>-0.92</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="64"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="80">
+        <v>-1.65</v>
+      </c>
+      <c r="C4" s="81">
+        <v>3.51</v>
+      </c>
+      <c r="D4" s="81">
+        <v>-0.78</v>
+      </c>
+      <c r="E4" s="76">
+        <v>2.57</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="63"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="80">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="81">
+        <v>0.78</v>
+      </c>
+      <c r="D5" s="81">
+        <v>-1.87</v>
+      </c>
+      <c r="E5" s="76">
+        <v>1.65</v>
+      </c>
+      <c r="F5" s="73"/>
+      <c r="G5" s="63"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="63"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="80">
+        <f>B3/$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="80">
+        <f>C3/$B$3</f>
+        <v>-0.5337620578778135</v>
+      </c>
+      <c r="D7" s="80">
+        <f>D3/$B$3</f>
+        <v>-0.19292604501607716</v>
+      </c>
+      <c r="E7" s="80">
+        <f>E3/$B$3</f>
+        <v>-0.29581993569131837</v>
+      </c>
+      <c r="F7" s="73"/>
+      <c r="G7" s="63"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="80">
+        <f>B4-B7*$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="80">
+        <f t="shared" ref="C8:D8" si="0">C4-C7*$B$4</f>
+        <v>2.6292926045016074</v>
+      </c>
+      <c r="D8" s="80">
+        <f t="shared" si="0"/>
+        <v>-1.0983279742765273</v>
+      </c>
+      <c r="E8" s="80">
+        <f>E4-E7*$B$4</f>
+        <v>2.0818971061093245</v>
+      </c>
+      <c r="F8" s="73"/>
+      <c r="G8" s="63"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="80">
+        <f>B5-B7*$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="80">
+        <f t="shared" ref="C9:E9" si="1">C5-C7*$B$5</f>
+        <v>1.1002572347266881</v>
+      </c>
+      <c r="D9" s="80">
+        <f t="shared" si="1"/>
+        <v>-1.7542443729903539</v>
+      </c>
+      <c r="E9" s="80">
+        <f t="shared" si="1"/>
+        <v>1.8274919614147909</v>
+      </c>
+      <c r="F9" s="73"/>
+      <c r="G9" s="63"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="63"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="80">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="81">
+        <f>C7</f>
+        <v>-0.5337620578778135</v>
+      </c>
+      <c r="D11" s="81">
+        <f>D7</f>
+        <v>-0.19292604501607716</v>
+      </c>
+      <c r="E11" s="76">
+        <f>E7</f>
+        <v>-0.29581993569131837</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="76">
+        <f>E11-D11*G13-C11*G12</f>
+        <v>-0.18038680481029712</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="80">
+        <f>B8/$C$8</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="80">
+        <f t="shared" ref="C12:E12" si="2">C8/$C$8</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="80">
+        <f t="shared" si="2"/>
+        <v>-0.41772755622408925</v>
+      </c>
+      <c r="E12" s="80">
+        <f t="shared" si="2"/>
+        <v>0.79180883198199847</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="76">
+        <f>E12-G13*D12</f>
+        <v>0.48324945663637592</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="80">
+        <f>B9-B12*$C$9</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="80">
+        <f t="shared" ref="C13:E13" si="3">C9-C12*$C$9</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="80">
+        <f t="shared" si="3"/>
+        <v>-1.2946366071101003</v>
+      </c>
+      <c r="E13" s="80">
+        <f t="shared" si="3"/>
+        <v>0.95629856550610837</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="76">
+        <f>E13/D13</f>
+        <v>-0.7386617682940132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE1DD9A-7F61-479B-81D6-EEDBE609EF94}">
+  <dimension ref="B4:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12.69921875" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:9" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="87"/>
+    </row>
+    <row r="6" spans="2:9" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="90"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="62">
+        <f>-(0.92/3.11)-(1/3.11)*(-1.66*D7-0.6*E7)</f>
+        <v>-0.29581993569131837</v>
+      </c>
+      <c r="D8" s="62">
+        <f>(2.57/3.51)-(1/3.51)*(-1.65*C7-0.78*E7)</f>
+        <v>0.73219373219373218</v>
+      </c>
+      <c r="E8" s="60">
+        <f>-(1.65/1.87)+(1/1.87)*(0.6*C7+0.78*D7)</f>
+        <v>-0.88235294117647045</v>
+      </c>
+      <c r="F8" s="25">
+        <f>ABS(C8-C7)</f>
+        <v>0.29581993569131837</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" ref="G8:H8" si="0">ABS(D8-D7)</f>
+        <v>0.73219373219373218</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.88235294117647045</v>
+      </c>
+      <c r="I8" s="90" t="str">
+        <f>IF(F8&gt;=0.001,"НЕТ",IF(G8&gt;=0.001,"НЕТ",IF(H8&gt;=0.001,"НЕТ","ДА")))</f>
+        <v>НЕТ</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="62">
+        <f t="shared" ref="C9:C17" si="1">-(0.92/3.11)-(1/3.11)*(-1.66*D8-0.6*E8)</f>
+        <v>-7.523156567983505E-2</v>
+      </c>
+      <c r="D9" s="62">
+        <f t="shared" ref="D9:D27" si="2">(2.57/3.51)-(1/3.51)*(-1.65*C8-0.78*E8)</f>
+        <v>0.39705464729107631</v>
+      </c>
+      <c r="E9" s="60">
+        <f t="shared" ref="E9:E17" si="3">-(1.65/1.87)+(1/1.87)*(0.6*C8+0.78*D8)</f>
+        <v>-0.67186141727469506</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" ref="F9:F17" si="4">ABS(C9-C8)</f>
+        <v>0.22058837001148332</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" ref="G9:G18" si="5">ABS(D9-D8)</f>
+        <v>0.33513908490265587</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" ref="H9:H18" si="6">ABS(E9-E8)</f>
+        <v>0.21049152390177539</v>
+      </c>
+      <c r="I9" s="90" t="str">
+        <f t="shared" ref="I9:I12" si="7">IF(F9&gt;=0.001,"НЕТ",IF(G9&gt;=0.001,"НЕТ",IF(H9&gt;=0.001,"НЕТ","ДА")))</f>
+        <v>НЕТ</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="62">
+        <f t="shared" si="1"/>
+        <v>-0.21350679609698731</v>
+      </c>
+      <c r="D10" s="62">
+        <f t="shared" si="2"/>
+        <v>0.54752592910370657</v>
+      </c>
+      <c r="E10" s="60">
+        <f t="shared" si="3"/>
+        <v>-0.74087503450313441</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="4"/>
+        <v>0.13827523041715226</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="5"/>
+        <v>0.15047128181263025</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="6"/>
+        <v>6.901361722843935E-2</v>
+      </c>
+      <c r="I10" s="90" t="str">
+        <f t="shared" si="7"/>
+        <v>НЕТ</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="62">
+        <f t="shared" si="1"/>
+        <v>-0.14650545928930159</v>
+      </c>
+      <c r="D11" s="62">
+        <f t="shared" si="2"/>
+        <v>0.4671883930277852</v>
+      </c>
+      <c r="E11" s="60">
+        <f t="shared" si="3"/>
+        <v>-0.72247799623385078</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="4"/>
+        <v>6.7001336807685719E-2</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="5"/>
+        <v>8.0337536075921367E-2</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="6"/>
+        <v>1.8397038269283628E-2</v>
+      </c>
+      <c r="I11" s="90" t="str">
+        <f t="shared" si="7"/>
+        <v>НЕТ</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="62">
+        <f t="shared" si="1"/>
+        <v>-0.18583732003671613</v>
+      </c>
+      <c r="D12" s="62">
+        <f t="shared" si="2"/>
+        <v>0.50277297866388848</v>
+      </c>
+      <c r="E12" s="60">
+        <f t="shared" si="3"/>
+        <v>-0.73449001551438942</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="4"/>
+        <v>3.9331860747414543E-2</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="5"/>
+        <v>3.5584585636103283E-2</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2012019280538633E-2</v>
+      </c>
+      <c r="I12" s="90" t="str">
+        <f t="shared" si="7"/>
+        <v>НЕТ</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="62">
+        <f t="shared" si="1"/>
+        <v>-0.16916104975131152</v>
+      </c>
+      <c r="D13" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48161430479720646</v>
+      </c>
+      <c r="E13" s="60">
+        <f t="shared" si="3"/>
+        <v>-0.73226709554235103</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="4"/>
+        <v>1.667627028540461E-2</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="5"/>
+        <v>2.1158673866682021E-2</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="6"/>
+        <v>2.2229199720383841E-3</v>
+      </c>
+      <c r="I13" s="90" t="str">
+        <f t="shared" ref="I13:I14" si="8">IF(F13&gt;=0.001,"НЕТ",IF(G13&gt;=0.001,"НЕТ",IF(H13&gt;=0.001,"НЕТ","ДА")))</f>
+        <v>НЕТ</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="62">
+        <f t="shared" si="1"/>
+        <v>-0.18002588789776464</v>
+      </c>
+      <c r="D14" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48994755936960177</v>
+      </c>
+      <c r="E14" s="60">
+        <f t="shared" si="3"/>
+        <v>-0.73574196369463407</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="4"/>
+        <v>1.0864838146453115E-2</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="5"/>
+        <v>8.33325457239531E-3</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="6"/>
+        <v>3.4748681522830394E-3</v>
+      </c>
+      <c r="I14" s="90" t="str">
+        <f t="shared" si="8"/>
+        <v>НЕТ</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="62">
+        <f t="shared" si="1"/>
+        <v>-0.17624830535795552</v>
+      </c>
+      <c r="D15" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48406796389939422</v>
+      </c>
+      <c r="E15" s="60">
+        <f t="shared" si="3"/>
+        <v>-0.73575210504297817</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="4"/>
+        <v>3.7775825398091156E-3</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="5"/>
+        <v>5.8795954702075548E-3</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="6"/>
+        <v>1.0141348344094858E-5</v>
+      </c>
+      <c r="I15" s="90" t="str">
+        <f t="shared" ref="I15:I26" si="9">IF(F15&gt;=0.001,"НЕТ",IF(G15&gt;=0.001,"НЕТ",IF(H15&gt;=0.001,"НЕТ","ДА")))</f>
+        <v>НЕТ</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>9</v>
+      </c>
+      <c r="C16" s="62">
+        <f t="shared" si="1"/>
+        <v>-0.17938856686584975</v>
+      </c>
+      <c r="D16" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48584149693044165</v>
+      </c>
+      <c r="E16" s="60">
+        <f t="shared" si="3"/>
+        <v>-0.73699249806055911</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="4"/>
+        <v>3.140261507894232E-3</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="5"/>
+        <v>1.7735330310474362E-3</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="6"/>
+        <v>1.240393017580943E-3</v>
+      </c>
+      <c r="I16" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>НЕТ</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>10</v>
+      </c>
+      <c r="C17" s="62">
+        <f t="shared" si="1"/>
+        <v>-0.17868122634463102</v>
+      </c>
+      <c r="D17" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48408966273051612</v>
+      </c>
+      <c r="E17" s="60">
+        <f t="shared" si="3"/>
+        <v>-0.7372603061570937</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="4"/>
+        <v>7.0734052121873559E-4</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="5"/>
+        <v>1.7518341999255282E-3</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" si="6"/>
+        <v>2.6780809653459414E-4</v>
+      </c>
+      <c r="I17" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>НЕТ</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>11</v>
+      </c>
+      <c r="C18" s="62">
+        <f>-(0.92/3.11)-(1/3.11)*(-1.66*D17-0.6*E17)</f>
+        <v>-0.17966795612913172</v>
+      </c>
+      <c r="D18" s="62">
+        <f>(2.57/3.51)-(1/3.51)*(-1.65*C17-0.78*E17)</f>
+        <v>0.48436266032160274</v>
+      </c>
+      <c r="E18" s="60">
+        <f>-(1.65/1.87)+(1/1.87)*(0.6*C17+0.78*D17)</f>
+        <v>-0.73776406357057533</v>
+      </c>
+      <c r="F18" s="25">
+        <f>ABS(C18-C17)</f>
+        <v>9.8672978450070614E-4</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="5"/>
+        <v>2.7299759108662114E-4</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="6"/>
+        <v>5.0375741348163139E-4</v>
+      </c>
+      <c r="I18" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>12</v>
+      </c>
+      <c r="C19" s="62">
+        <f t="shared" ref="C19:C26" si="10">-(0.92/3.11)-(1/3.11)*(-1.66*D18-0.6*E18)</f>
+        <v>-0.17961942829854816</v>
+      </c>
+      <c r="D19" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48378686689512362</v>
+      </c>
+      <c r="E19" s="60">
+        <f t="shared" ref="E19:E26" si="11">-(1.65/1.87)+(1/1.87)*(0.6*C18+0.78*D18)</f>
+        <v>-0.73796679070942717</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" ref="F19:F26" si="12">ABS(C19-C18)</f>
+        <v>4.85278305835668E-5</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" ref="G19:G26" si="13">ABS(D19-D18)</f>
+        <v>5.7579342647912091E-4</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" ref="H19:H26" si="14">ABS(E19-E18)</f>
+        <v>2.0272713885183258E-4</v>
+      </c>
+      <c r="I19" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>13</v>
+      </c>
+      <c r="C20" s="62">
+        <f t="shared" si="10"/>
+        <v>-0.17996587632789429</v>
+      </c>
+      <c r="D20" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48376462864787528</v>
+      </c>
+      <c r="E20" s="60">
+        <f t="shared" si="11"/>
+        <v>-0.73819139080263751</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="12"/>
+        <v>3.4644802934613583E-4</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="13"/>
+        <v>2.223824724834067E-5</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" si="14"/>
+        <v>2.2460009321034757E-4</v>
+      </c>
+      <c r="I20" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>14</v>
+      </c>
+      <c r="C21" s="62">
+        <f t="shared" si="10"/>
+        <v>-0.18002107746820248</v>
+      </c>
+      <c r="D21" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48355185733131545</v>
+      </c>
+      <c r="E21" s="60">
+        <f t="shared" si="11"/>
+        <v>-0.73831182644459559</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="12"/>
+        <v>5.5201140308186458E-5</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="13"/>
+        <v>2.1277131655983439E-4</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="14"/>
+        <v>1.204356419580721E-4</v>
+      </c>
+      <c r="I21" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>15</v>
+      </c>
+      <c r="C22" s="62">
+        <f t="shared" si="10"/>
+        <v>-0.18015788189606874</v>
+      </c>
+      <c r="D22" s="62">
+        <f t="shared" si="2"/>
+        <v>0.4834991446013337</v>
+      </c>
+      <c r="E22" s="60">
+        <f t="shared" si="11"/>
+        <v>-0.73841828757352679</v>
+      </c>
+      <c r="F22" s="25">
+        <f t="shared" si="12"/>
+        <v>1.3680442786626057E-4</v>
+      </c>
+      <c r="G22" s="25">
+        <f t="shared" si="13"/>
+        <v>5.2712729981752027E-5</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" si="14"/>
+        <v>1.0646112893120119E-4</v>
+      </c>
+      <c r="I22" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>16</v>
+      </c>
+      <c r="C23" s="62">
+        <f t="shared" si="10"/>
+        <v>-0.18020655707585281</v>
+      </c>
+      <c r="D23" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48341117679889906</v>
+      </c>
+      <c r="E23" s="60">
+        <f t="shared" si="11"/>
+        <v>-0.73848416917037474</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" si="12"/>
+        <v>4.867517978407454E-5</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="13"/>
+        <v>8.7967802434640863E-5</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="14"/>
+        <v>6.5881596847949808E-5</v>
+      </c>
+      <c r="I23" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>17</v>
+      </c>
+      <c r="C24" s="62">
+        <f t="shared" si="10"/>
+        <v>-0.18026622122702657</v>
+      </c>
+      <c r="D24" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48337365494927365</v>
+      </c>
+      <c r="E24" s="60">
+        <f t="shared" si="11"/>
+        <v>-0.73853647932747069</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" si="12"/>
+        <v>5.9664151173755009E-5</v>
+      </c>
+      <c r="G24" s="25">
+        <f t="shared" si="13"/>
+        <v>3.7521849625410386E-5</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" si="14"/>
+        <v>5.2310157095947218E-5</v>
+      </c>
+      <c r="I24" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>18</v>
+      </c>
+      <c r="C25" s="62">
+        <f t="shared" si="10"/>
+        <v>-0.1802963409584207</v>
+      </c>
+      <c r="D25" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48333398321936721</v>
+      </c>
+      <c r="E25" s="60">
+        <f t="shared" si="11"/>
+        <v>-0.73857127373036491</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" si="12"/>
+        <v>3.0119731394134819E-5</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="13"/>
+        <v>3.9671729906431974E-5</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="14"/>
+        <v>3.4794402894222642E-5</v>
+      </c>
+      <c r="I25" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>19</v>
+      </c>
+      <c r="C26" s="62">
+        <f t="shared" si="10"/>
+        <v>-0.18032422896915418</v>
+      </c>
+      <c r="D26" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48331209228174388</v>
+      </c>
+      <c r="E26" s="60">
+        <f t="shared" si="11"/>
+        <v>-0.73859748538178915</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="12"/>
+        <v>2.7888010733473356E-5</v>
+      </c>
+      <c r="G26" s="25">
+        <f t="shared" si="13"/>
+        <v>2.1890937623336715E-5</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" si="14"/>
+        <v>2.6211651424246085E-5</v>
+      </c>
+      <c r="I26" s="90" t="str">
+        <f t="shared" si="9"/>
+        <v>ДА</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>20</v>
+      </c>
+      <c r="C27" s="62">
+        <f t="shared" ref="C27" si="15">-(0.92/3.11)-(1/3.11)*(-1.66*D26-0.6*E26)</f>
+        <v>-0.18034097043131153</v>
+      </c>
+      <c r="D27" s="62">
+        <f t="shared" si="2"/>
+        <v>0.48329315772168091</v>
+      </c>
+      <c r="E27" s="60">
+        <f t="shared" ref="E27" si="16">-(1.65/1.87)+(1/1.87)*(0.6*C26+0.78*D26)</f>
+        <v>-0.73861556438595288</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" ref="F27" si="17">ABS(C27-C26)</f>
+        <v>1.6741462157354725E-5</v>
+      </c>
+      <c r="G27" s="25">
+        <f t="shared" ref="G27" si="18">ABS(D27-D26)</f>
+        <v>1.8934560062966455E-5</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" ref="H27" si="19">ABS(E27-E26)</f>
+        <v>1.8079004163729095E-5</v>
+      </c>
+      <c r="I27" s="90" t="str">
+        <f t="shared" ref="I27" si="20">IF(F27&gt;=0.001,"НЕТ",IF(G27&gt;=0.001,"НЕТ",IF(H27&gt;=0.001,"НЕТ","ДА")))</f>
+        <v>ДА</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>